--- a/biology/Biologie cellulaire et moléculaire/Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_courte/Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_courte.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_courte/Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_courte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_courte</t>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_courte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le déficit en acyl-coenzyme A déshydrogénase defs acides gras à chaîne courte (SCADD), également appelé déficit en ACADS ou déficit en SCAD[1], est une maladie autosomique récessive[2] d'oxydation des acides gras trouble qui affecte les enzymes nécessaires à briser un certain groupe de graisses appelées acides gras à courte chaîne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le déficit en acyl-coenzyme A déshydrogénase defs acides gras à chaîne courte (SCADD), également appelé déficit en ACADS ou déficit en SCAD, est une maladie autosomique récessive d'oxydation des acides gras trouble qui affecte les enzymes nécessaires à briser un certain groupe de graisses appelées acides gras à courte chaîne.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_courte</t>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_courte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Signes/symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les nourrissons atteints de SCADD auront des vomissements, un taux de sucre dans le sang faible, un manque d'énergie (léthargie), une mauvaise alimentation, et l'absence de gain de poids et de croissance. D'autres caractéristiques de ce trouble peuvent inclure un manque de tonus musculaire (hypotonie), des convulsions, des retards de développement et une microcéphalie[3]. Les symptômes de SCADD peuvent apparaître au cours de maladies telles que les infections virales. Dans certains cas, les signes et les symptômes peuvent ne pas apparaître jusqu'à l'âge adulte, lorsque certaines personnes peuvent développer des faiblesses musculaires, tandis que d'autres personnes auront des symptômes légers et ne seront jamais diagnostiquées[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nourrissons atteints de SCADD auront des vomissements, un taux de sucre dans le sang faible, un manque d'énergie (léthargie), une mauvaise alimentation, et l'absence de gain de poids et de croissance. D'autres caractéristiques de ce trouble peuvent inclure un manque de tonus musculaire (hypotonie), des convulsions, des retards de développement et une microcéphalie. Les symptômes de SCADD peuvent apparaître au cours de maladies telles que les infections virales. Dans certains cas, les signes et les symptômes peuvent ne pas apparaître jusqu'à l'âge adulte, lorsque certaines personnes peuvent développer des faiblesses musculaires, tandis que d'autres personnes auront des symptômes légers et ne seront jamais diagnostiquées.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_courte</t>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_courte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>La génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La SCADD est causée génétiquement par des mutations dans les gènes ACADS, localisé sur le chromosome 12q22-qter[5]. Les mutations dans les gènes ACADS conduisent à l'insuffisance des niveaux d'acyl-CoA déshydrogénase à chaîne courte, ce qui est important pour briser les chaînes courtes d'acides gras. De faibles niveaux de cette enzyme stoppe le cycle de décomposition et de transformation des acides gras à chaîne courte dans les mitochondries. Par conséquent, ces acides gras à chaîne courte seront pas convertis en énergie[6].
-Le trouble est héritée par transmission autosomique récessive. Cela signifie que le gène défectueux responsable de la maladie est situé sur un autosome (le chromosome 12 est un autosome), et que deux copies du gène défectueux sont nécessaires afin d'être porteur atteint de cette maladie. Les parents d'un individu avec une maladie autosomique récessive sont tous les deux porteur d'une copie défectueuse du gène[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La SCADD est causée génétiquement par des mutations dans les gènes ACADS, localisé sur le chromosome 12q22-qter. Les mutations dans les gènes ACADS conduisent à l'insuffisance des niveaux d'acyl-CoA déshydrogénase à chaîne courte, ce qui est important pour briser les chaînes courtes d'acides gras. De faibles niveaux de cette enzyme stoppe le cycle de décomposition et de transformation des acides gras à chaîne courte dans les mitochondries. Par conséquent, ces acides gras à chaîne courte seront pas convertis en énergie.
+Le trouble est héritée par transmission autosomique récessive. Cela signifie que le gène défectueux responsable de la maladie est situé sur un autosome (le chromosome 12 est un autosome), et que deux copies du gène défectueux sont nécessaires afin d'être porteur atteint de cette maladie. Les parents d'un individu avec une maladie autosomique récessive sont tous les deux porteur d'une copie défectueuse du gène.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_courte</t>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_courte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,12 +590,14 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic de courte chaîne acyl-coenzyme A déshydrogénase est basé sur les éléments suivants:
-Le test néonatal du buvard[8]
-Les tests génétiques[9]
-Les anayses d'urine[10]
+Le test néonatal du buvard
+Les tests génétiques
+Les anayses d'urine
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_courte</t>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_courte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,14 +626,50 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En termes de traitement pour la SCADD, certaines personnes peuvent ne pas avoir besoin de traitement, tandis que d'autres pourraient suivre l'administration de:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En termes de traitement pour la SCADD, certaines personnes peuvent ne pas avoir besoin de traitement, tandis que d'autres pourraient suivre l'administration de:
 La riboflavine
 Dextrose
-Anticonvulsivants
-Épidémiologie
-Ce trouble, du point de vue épidémiologique, affecte environ 1 nouveau-né sur 50 000 selon Jethva, et al. Cependant, dans l'état américain de Californie, il semble y avoir un rapport de 1 pour 35 000.
+Anticonvulsivants</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_courte</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_courte</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Épidémiologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce trouble, du point de vue épidémiologique, affecte environ 1 nouveau-né sur 50 000 selon Jethva, et al. Cependant, dans l'état américain de Californie, il semble y avoir un rapport de 1 pour 35 000.
 </t>
         </is>
       </c>
